--- a/saved_margins/tor.xlsx
+++ b/saved_margins/tor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/128f4c0d96ea7ffd/One Drive Backup/4. SH/Paper 1/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SH\CODE\dynaampg\saved_margins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{57503B8B-D944-44BE-A5EC-5100985F3D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E60F906A-118A-4581-AC43-AB9CF2080958}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72BE396-4B30-4F68-9637-9F67B1CA667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5C9C02E7-3852-43A3-AC08-318A9C4E9C7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C9C02E7-3852-43A3-AC08-318A9C4E9C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>voip</t>
   </si>
@@ -48,22 +48,46 @@
     <t>class_name</t>
   </si>
   <si>
-    <t>browsing</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>chat</t>
   </si>
   <si>
-    <t>audio_stream</t>
-  </si>
-  <si>
-    <t>video_stream</t>
-  </si>
-  <si>
-    <t>file_transfer</t>
+    <t>tor_email</t>
+  </si>
+  <si>
+    <t>tor_chat</t>
+  </si>
+  <si>
+    <t>tor_voip</t>
+  </si>
+  <si>
+    <t>tor_p2p</t>
+  </si>
+  <si>
+    <t>browse</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>tor_browse</t>
+  </si>
+  <si>
+    <t>tor_audio</t>
+  </si>
+  <si>
+    <t>tor_video</t>
+  </si>
+  <si>
+    <t>tor_ft</t>
   </si>
 </sst>
 </file>
@@ -421,18 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6932EC62-60C4-4F6B-8C6E-4BD915CD65A2}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -440,68 +465,132 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>13915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="B4">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>943.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1069</v>
+        <v>11459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
